--- a/docs/배치펌뱅킹_오류코드정리.xlsx
+++ b/docs/배치펌뱅킹_오류코드정리.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="480" windowWidth="15525" windowHeight="10725"/>
+    <workbookView xWindow="345" yWindow="510" windowWidth="12705" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,112 @@
         </r>
       </text>
     </comment>
-    <comment ref="A141" authorId="0">
+    <comment ref="A50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A87" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A109" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오뱅크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A198" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,18 +159,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="472">
   <si>
     <t>코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금결원 오류코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0000</t>
@@ -75,7 +180,7 @@
   </si>
   <si>
     <t>0000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0011</t>
@@ -453,699 +558,1997 @@
     <t>1012</t>
   </si>
   <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>계좌상태 오류</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>전출입계좌(구주택계좌)</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>기타오류</t>
+  </si>
+  <si>
+    <t>1202</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정과목 부적당</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0015</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1318</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0031</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1417</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인계좌없음</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0012</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>신청구분 오류</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>납부자번호 오류</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>자동이체미등록</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>계좌번호 불일치</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>신규신청 불가(일반입출금계좌가 아니다)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>이중신청</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>징수기관 임의해지</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>자동이체해지(업체해지)</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>해지계좌(영업점해지)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지계좌(기관해지)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>자동이체해지</t>
+  </si>
+  <si>
+    <t>2088</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2178</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>사망신고 고객</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>파산신고 고객</t>
+  </si>
+  <si>
+    <t>2201</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당원장 없음</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2202</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당원장 없음(특수고객번호)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2204</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객번호 부적당</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>잔액증명 발급계좌</t>
+  </si>
+  <si>
+    <t>0036</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2302</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액 부적당</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2304</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액구분 입력오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2305</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액구분코드 입력오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2401</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인계좌없음(사용불능계좌)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2402</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2403</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이관계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2404</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2405</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2408</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2415</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>연체,한도초과</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0037</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2416</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>연체,한도초과(고정연체자)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2417</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래내역원장오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2514</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액증명발급</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2522</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>실명번호 불일치</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0032</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2523</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2524</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>실명미확인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2549</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금거래불가상태</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2715</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수채권인관련계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>3053</t>
+  </si>
+  <si>
+    <t>지급정지된 계좌</t>
+  </si>
+  <si>
+    <t>3054</t>
+  </si>
+  <si>
+    <t>예금부족으로 부도신고된 계좌</t>
+  </si>
+  <si>
+    <t>3155</t>
+  </si>
+  <si>
+    <t>실명미확인 계좌</t>
+  </si>
+  <si>
+    <t>3232</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파산신고 고객</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3261</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급정지계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3405</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정과목부적당</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3601</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액부족</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0021</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3604</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액부족(미결제타점권)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4303</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미처리(전거래금지중)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0034</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4304</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미처리(금치산 한정치산자)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4305</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금주사망,실종</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4306</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미처리(예금주파산)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4307</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미처리(법인해산)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4308</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급금지계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4316</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>압류및법적제한계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0035</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4317</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>통장분실재발행계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4319</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급,해지금지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4324</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미처리(이관중)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4335</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고등록중책임자협의</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4341</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호미등록</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4802</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>타행환거래불가(CMS계좌등)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4805</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행코드오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6008</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행시스템 오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상처리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분출금</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌없음</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔고부족</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고등록</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호틀림</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>연체계좌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액증명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금이체미신청</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행접수분 해지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8725</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래일자 오류</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A011</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>기타처리오류</t>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행시스템 장애</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청일자 오류</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>처리결과 통보 오류</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>신규신청 불가</t>
+  </si>
+  <si>
+    <t>이중 신청</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>납부자번호체계 오류</t>
+  </si>
+  <si>
+    <t>D207</t>
+  </si>
+  <si>
+    <t>배치펌뱅킹 오류코드 정리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미해지된 납부자번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0460</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>실명번호오류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이동에 의한 자동이체해지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-11</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호오류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0950</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>약정미등록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>401</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0413</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 수취불가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인계좌 없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>계좌번호 오류</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>계좌상태 오류</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>전출입계좌(구주택계좌)</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>기타오류</t>
-  </si>
-  <si>
-    <t>1202</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정과목 부적당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1318</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해지계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1417</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수취인계좌없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금등록불가계좌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0438</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금불가계좌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌상태확인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>121</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0151</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0160</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0190</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호오류</t>
+  </si>
+  <si>
+    <t>고객정보없음</t>
+  </si>
+  <si>
+    <t>실명번호불일치</t>
+  </si>
+  <si>
+    <t>타행이체응답미수신</t>
+  </si>
+  <si>
+    <t>해당계좌거래불가</t>
+  </si>
+  <si>
+    <t>계좌번호불능</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>014</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>034</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0210</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>219</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>230</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>239</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>259</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 등록된 자동이체</t>
+  </si>
+  <si>
+    <t>자동이체 등록 오류</t>
+  </si>
+  <si>
+    <t>이미 해지된 자동이체</t>
+  </si>
+  <si>
+    <t>자동이체 해지 오류</t>
+  </si>
+  <si>
+    <t>대상납부자없음(자동이체미등록)</t>
+  </si>
+  <si>
+    <t>자동이체 조회 오류</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>016</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>017</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>310</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>311</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>312</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>313</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>314</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>330</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>331</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>332</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>333</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>339</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복불가</t>
+  </si>
+  <si>
+    <t>필수항목 입력누락</t>
+  </si>
+  <si>
+    <t>일련번호 입력누락</t>
+  </si>
+  <si>
+    <t>은행코드 입력누락</t>
+  </si>
+  <si>
+    <t>일자 입력누락</t>
+  </si>
+  <si>
+    <t>거래금액 입력누락</t>
+  </si>
+  <si>
+    <t>기타항목 입력누락</t>
+  </si>
+  <si>
+    <t>필수항목 입력부적</t>
+  </si>
+  <si>
+    <t>일련번호 입력부적</t>
+  </si>
+  <si>
+    <t>은행코드 입력부적</t>
+  </si>
+  <si>
+    <t>일자 입력부적</t>
+  </si>
+  <si>
+    <t>0319</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타항목 입력부적</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>411</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래금액 없음</t>
+  </si>
+  <si>
+    <t>거래금액 잔액부족</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>061</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0412</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래금액 불일치</t>
+  </si>
+  <si>
+    <t>0051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>431</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>432</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>433</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10억 초과거래 불가</t>
+  </si>
+  <si>
+    <t>가상계좌 거래불가</t>
+  </si>
+  <si>
+    <t>해당상품 이체거래불가</t>
+  </si>
+  <si>
+    <t>해당계좌 지급거래불가</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>022</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0037</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0037</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0410</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0414</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0490</t>
+  </si>
+  <si>
+    <t>기타수취불가</t>
+  </si>
+  <si>
+    <t>0500</t>
+  </si>
+  <si>
+    <t>해당원장정보없음</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>해당원장READ오류</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>해당원장처리오류</t>
+  </si>
+  <si>
+    <t>0610</t>
+  </si>
+  <si>
+    <t>미참가 업체입니다</t>
+  </si>
+  <si>
+    <t>0611</t>
+  </si>
+  <si>
+    <t>원장상태 오류</t>
+  </si>
+  <si>
+    <t>0612</t>
+  </si>
+  <si>
+    <t>계약기간 오류</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
+  <si>
+    <t>처리건수오류</t>
+  </si>
+  <si>
+    <t>0690</t>
+  </si>
+  <si>
+    <t>조회대상없음</t>
+  </si>
+  <si>
+    <t>0699</t>
+  </si>
+  <si>
+    <t>기타항목 원장상태확인</t>
+  </si>
+  <si>
+    <t>0888</t>
+  </si>
+  <si>
+    <t>0911</t>
+  </si>
+  <si>
+    <t>미개시 상태</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>통신망검증오류</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
+    <t>해당기관 장애중</t>
+  </si>
+  <si>
+    <t>0914</t>
+  </si>
+  <si>
+    <t>시스템오류</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>051</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>041</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0991</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>999</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당기관장애중</t>
+  </si>
+  <si>
+    <t>TIME OVER(응답대기시간 경과)</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>041</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>041</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>신청구분 오류</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>납부자번호 오류</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>자동이체미등록</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>계좌번호 불일치</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>신규신청 불가(일반입출금계좌가 아니다)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>이중신청</t>
-  </si>
-  <si>
-    <t>A016</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>징수기관 임의해지</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>자동이체해지(업체해지)</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>해지계좌(영업점해지)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해지계좌(기관해지)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>자동이체해지</t>
-  </si>
-  <si>
-    <t>2088</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2178</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>사망신고 고객</t>
-  </si>
-  <si>
-    <t>2181</t>
-  </si>
-  <si>
-    <t>파산신고 고객</t>
-  </si>
-  <si>
-    <t>2201</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당원장 없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2202</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당원장 없음(특수고객번호)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2204</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객번호 부적당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0051</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>잔액증명 발급계좌</t>
-  </si>
-  <si>
-    <t>0036</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액 부적당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액구분 입력오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2305</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액구분코드 입력오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2401</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수취인계좌없음(사용불능계좌)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2402</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2403</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이관계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2404</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2405</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2408</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2415</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연체,한도초과</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0037</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2416</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연체,한도초과(고정연체자)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2417</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래내역원장오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2514</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔액증명발급</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2522</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>실명번호 불일치</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2523</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2524</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>실명미확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2549</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금거래불가상태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2715</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수채권인관련계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>3053</t>
-  </si>
-  <si>
-    <t>지급정지된 계좌</t>
-  </si>
-  <si>
-    <t>3054</t>
-  </si>
-  <si>
-    <t>예금부족으로 부도신고된 계좌</t>
-  </si>
-  <si>
-    <t>3155</t>
-  </si>
-  <si>
-    <t>실명미확인 계좌</t>
-  </si>
-  <si>
-    <t>3232</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파산신고 고객</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3261</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지급정지계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3405</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정과목부적당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3601</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔액부족</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3604</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔액부족(미결제타점권)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4303</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>미처리(전거래금지중)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0034</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4304</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>미처리(금치산 한정치산자)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4305</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금주사망,실종</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4306</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>미처리(예금주파산)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4307</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>미처리(법인해산)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4308</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지급금지계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4316</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>압류및법적제한계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0035</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4317</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>통장분실재발행계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4319</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지급,해지금지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4324</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>미처리(이관중)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4335</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고등록중책임자협의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4341</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호미등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4802</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>타행환거래불가(CMS계좌등)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4805</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행코드오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행시스템 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
-    <t>정상처리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7101</t>
-  </si>
-  <si>
-    <t>부분출금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7103</t>
-  </si>
-  <si>
-    <t>계좌없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7105</t>
-  </si>
-  <si>
-    <t>잔고부족</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7109</t>
-  </si>
-  <si>
-    <t>사고등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7113</t>
-  </si>
-  <si>
-    <t>계좌번호틀림</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7116</t>
-  </si>
-  <si>
-    <t>7117</t>
-  </si>
-  <si>
-    <t>연체계좌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7119</t>
-  </si>
-  <si>
-    <t>잔액증명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7125</t>
-  </si>
-  <si>
-    <t>출금이체미신청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7126</t>
-  </si>
-  <si>
-    <t>은행접수분 해지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7199</t>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8725</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래일자 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888</t>
-  </si>
-  <si>
-    <t>기타처리오류</t>
-  </si>
-  <si>
-    <t>9999</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행시스템 장애</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청일자 오류</t>
-  </si>
-  <si>
-    <t>A012</t>
-  </si>
-  <si>
-    <t>A014</t>
-  </si>
-  <si>
-    <t>처리결과 통보 오류</t>
-  </si>
-  <si>
-    <t>A015</t>
-  </si>
-  <si>
-    <t>신규신청 불가</t>
-  </si>
-  <si>
-    <t>이중 신청</t>
-  </si>
-  <si>
-    <t>A018</t>
-  </si>
-  <si>
-    <t>납부자번호체계 오류</t>
-  </si>
-  <si>
-    <t>D207</t>
-  </si>
-  <si>
-    <t>배치펌뱅킹 오류코드 정리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-04-28</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출금은행 변경 해지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>037</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1196,7 +2599,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1212,6 +2615,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,53 +2808,86 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1454,26 +2896,44 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,6 +2944,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1532,7 +2995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1567,7 +3030,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1776,34 +3239,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="31"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="32"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
     </row>
@@ -1845,7 +3308,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -1855,7 +3320,9 @@
         <v>9</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -1865,7 +3332,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -1875,7 +3344,9 @@
         <v>13</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -1885,7 +3356,9 @@
         <v>15</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -1895,7 +3368,9 @@
         <v>17</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1905,7 +3380,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1915,7 +3392,9 @@
         <v>21</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -1925,7 +3404,9 @@
         <v>23</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -1935,7 +3416,9 @@
         <v>25</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -1945,7 +3428,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
@@ -1955,7 +3440,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -1965,7 +3452,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -1975,7 +3464,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -1985,7 +3476,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
@@ -1995,7 +3488,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
@@ -2005,7 +3500,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -2015,7 +3512,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
@@ -2025,7 +3524,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
@@ -2035,7 +3536,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
@@ -2045,7 +3548,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
@@ -2055,7 +3560,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
@@ -2065,7 +3572,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
@@ -2075,7 +3584,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
@@ -2085,7 +3596,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
@@ -2095,7 +3608,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
@@ -2105,7 +3620,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
@@ -2115,7 +3632,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
@@ -2125,7 +3644,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
@@ -2135,7 +3656,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
@@ -2145,7 +3668,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
@@ -2155,7 +3680,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
@@ -2165,7 +3692,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
@@ -2175,7 +3704,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -2298,1363 +3829,2049 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>95</v>
+      <c r="A50" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="13" t="s">
-        <v>46</v>
+      <c r="D50" s="39" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>97</v>
+      <c r="A51" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="13" t="s">
-        <v>32</v>
+      <c r="D51" s="39" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>99</v>
+      <c r="A52" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>348</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="13" t="s">
-        <v>28</v>
+      <c r="D52" s="39" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>27</v>
+      <c r="A53" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="13" t="s">
-        <v>26</v>
+      <c r="D53" s="39" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>102</v>
+      <c r="A54" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="13" t="s">
-        <v>30</v>
+      <c r="D54" s="39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>104</v>
+      <c r="A55" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>351</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="13" t="s">
-        <v>28</v>
+      <c r="D55" s="39" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>106</v>
+      <c r="A56" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>352</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="13" t="s">
-        <v>46</v>
+      <c r="D56" s="39" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="13" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>118</v>
+      <c r="A62" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>366</v>
       </c>
       <c r="C62" s="6"/>
-      <c r="D62" s="13" t="s">
-        <v>32</v>
+      <c r="D62" s="39" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>120</v>
+      <c r="A63" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="13" t="s">
-        <v>121</v>
+      <c r="D63" s="39" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>123</v>
+      <c r="A64" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>368</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="13" t="s">
-        <v>22</v>
+      <c r="D64" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>45</v>
+      <c r="A65" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>369</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="13" t="s">
-        <v>46</v>
+      <c r="D65" s="39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>126</v>
+      <c r="A66" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="13" t="s">
-        <v>121</v>
+      <c r="D66" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>15</v>
+      <c r="A67" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>371</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="13" t="s">
-        <v>14</v>
+      <c r="D67" s="39" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="39" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="39" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" s="37"/>
+      <c r="D81" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>159</v>
+      <c r="A82" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="13" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>162</v>
+      <c r="A83" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>406</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="13" t="s">
-        <v>18</v>
+      <c r="D83" s="39" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>93</v>
+      <c r="A84" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>407</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="13" t="s">
-        <v>20</v>
+      <c r="D84" s="39" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>165</v>
+      <c r="A85" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>411</v>
       </c>
       <c r="C85" s="6"/>
-      <c r="D85" s="13" t="s">
-        <v>18</v>
+      <c r="D85" s="39" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>167</v>
+      <c r="A86" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>169</v>
+      <c r="A87" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>416</v>
       </c>
       <c r="C87" s="6"/>
-      <c r="D87" s="13" t="s">
-        <v>26</v>
+      <c r="D87" s="39" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>153</v>
+      <c r="A88" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="13" t="s">
-        <v>18</v>
+      <c r="D88" s="39" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>172</v>
+      <c r="A89" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="13" t="s">
-        <v>18</v>
+      <c r="D89" s="39" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>318</v>
+      <c r="A90" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>419</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="39" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>174</v>
+      <c r="A91" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="13" t="s">
-        <v>46</v>
+      <c r="D91" s="38" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="13" t="s">
-        <v>26</v>
+        <v>319</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="21" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="13" t="s">
-        <v>32</v>
+      <c r="A93" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="39" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="13" t="s">
-        <v>32</v>
+      <c r="A94" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="39" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="13" t="s">
-        <v>147</v>
+      <c r="A95" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="39" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="13" t="s">
-        <v>147</v>
+      <c r="A96" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="39" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="13" t="s">
-        <v>186</v>
+      <c r="A97" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="39" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="13" t="s">
-        <v>189</v>
+      <c r="A98" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="39" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="13" t="s">
-        <v>46</v>
+      <c r="A99" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="13" t="s">
-        <v>46</v>
+      <c r="A100" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="39" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="13" t="s">
-        <v>46</v>
+      <c r="A101" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="39" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="13" t="s">
-        <v>26</v>
+      <c r="A102" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="39" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="13" t="s">
-        <v>26</v>
+      <c r="A103" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="39" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="13" t="s">
-        <v>144</v>
+      <c r="A104" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="39" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="13" t="s">
-        <v>203</v>
+      <c r="A105" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="39" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="13" t="s">
-        <v>203</v>
+      <c r="A106" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="39" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="13" t="s">
-        <v>147</v>
+      <c r="A107" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="39" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="13" t="s">
-        <v>208</v>
+        <v>326</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="21" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="13" t="s">
-        <v>208</v>
+      <c r="A109" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="39" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="13" t="s">
-        <v>186</v>
+      <c r="A110" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="39" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>214</v>
+      <c r="A111" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="13" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>216</v>
+      <c r="A112" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="13" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>216</v>
+      <c r="A113" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="13" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>220</v>
+      <c r="A114" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="13" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>222</v>
+      <c r="A115" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="13" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>224</v>
+      <c r="A116" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="13" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>108</v>
+      <c r="A117" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="13" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>227</v>
+      <c r="A118" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>229</v>
+      <c r="A119" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>231</v>
+      <c r="A120" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="13" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>233</v>
+      <c r="A121" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>235</v>
+      <c r="A122" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>237</v>
+      <c r="A123" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="13" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>239</v>
+      <c r="A124" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="13" t="s">
-        <v>240</v>
+      <c r="D124" s="21" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>242</v>
+      <c r="A125" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="13" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="13" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="13" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="16" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="13" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="13" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="13" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="13" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="16" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="13" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="13" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="16" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="13" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="13" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="13" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="13" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="16" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="13" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="13" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="16" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="13" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="13" t="s">
-        <v>3</v>
+      <c r="A141" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="26"/>
+      <c r="D141" s="21" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="13" t="s">
-        <v>3</v>
+      <c r="A142" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C142" s="26"/>
+      <c r="D142" s="21" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="13" t="s">
-        <v>8</v>
+      <c r="A143" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C143" s="26"/>
+      <c r="D143" s="41" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>282</v>
+      <c r="A144" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>284</v>
+      <c r="A145" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>286</v>
+      <c r="A146" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>220</v>
+      <c r="A147" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>289</v>
+      <c r="A148" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>291</v>
+      <c r="A149" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>293</v>
+      <c r="A150" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>295</v>
+      <c r="A151" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>297</v>
+      <c r="A152" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="13" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
-        <v>298</v>
+        <v>181</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="13" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="C155" s="6"/>
-      <c r="D155" s="13"/>
+      <c r="D155" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="C156" s="6"/>
-      <c r="D156" s="13"/>
+      <c r="D156" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C157" s="6"/>
-      <c r="D157" s="13"/>
+      <c r="D157" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="C158" s="6"/>
-      <c r="D158" s="13"/>
+      <c r="D158" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="C159" s="6"/>
-      <c r="D159" s="13"/>
+      <c r="D159" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="C160" s="6"/>
-      <c r="D160" s="13"/>
+      <c r="D160" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B199" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B203" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B204" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="13"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="20" t="s">
+      <c r="B205" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B206" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B207" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B208" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B209" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C209" s="6"/>
+      <c r="D209" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C212" s="6"/>
+      <c r="D212" s="13"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C213" s="6"/>
+      <c r="D213" s="13"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="13"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="13"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B216" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="13"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="13"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C218" s="6"/>
+      <c r="D218" s="13"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B219" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="7"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="7"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/docs/배치펌뱅킹_오류코드정리.xlsx
+++ b/docs/배치펌뱅킹_오류코드정리.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56055F7-E74C-41D7-95BA-5A12C4606A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="510" windowWidth="12705" windowHeight="11685"/>
+    <workbookView xWindow="4524" yWindow="480" windowWidth="17964" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,27 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>산업은행</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="0" shapeId="0">
+    <comment ref="A62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A83" authorId="0" shapeId="0">
+    <comment ref="A83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A87" authorId="0" shapeId="0">
+    <comment ref="A87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0" shapeId="0">
+    <comment ref="A93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A109" authorId="0" shapeId="0">
+    <comment ref="A111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0" shapeId="0">
+    <comment ref="A202" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="482">
   <si>
     <t>코드</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -192,9 +178,6 @@
     <t>0012</t>
   </si>
   <si>
-    <t>계좌번호 오류 및 계좌번호 없음</t>
-  </si>
-  <si>
     <t>0013</t>
   </si>
   <si>
@@ -234,9 +217,6 @@
     <t>0021</t>
   </si>
   <si>
-    <t>잔액 또는 지불가능잔액 부족</t>
-  </si>
-  <si>
     <t>0022</t>
   </si>
   <si>
@@ -264,9 +244,6 @@
     <t>0034</t>
   </si>
   <si>
-    <t>법적제한계좌,지급정지 또는 사고신고계좌</t>
-  </si>
-  <si>
     <t>0035</t>
   </si>
   <si>
@@ -1267,10 +1244,6 @@
   <si>
     <t>계좌이동에 의한 자동이체해지</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-11</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1302</t>
@@ -2509,11 +2482,67 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>0723</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0724</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고신고계좌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래중지계좌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A049</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객확인필요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금은행변경해지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3566</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액증명 발급계좌(당일거래불가)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>법적제한계좌,지급정지 또는 사고신고계좌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호 오류 및 계좌번호 없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액 또는 지불가능잔액 부족</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2631,7 +2660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2802,6 +2831,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2821,10 +2889,10 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2857,12 +2925,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2870,9 +2932,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2887,26 +2946,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2932,8 +2976,32 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2953,9 +3021,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2993,9 +3061,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3030,7 +3098,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3065,7 +3133,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3238,45 +3306,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="31"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="39"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="40"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -3300,7 +3368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -3308,2563 +3376,2613 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="21" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="21" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="21" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="21" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="B40" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B53" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="39" t="s">
+      <c r="B54" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B55" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="39" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B56" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="39" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="39" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="39" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B66" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="39" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B67" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="B66" s="34" t="s">
+      <c r="C67" s="6"/>
+      <c r="D67" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="39" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B73" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="C73" s="6"/>
+      <c r="D73" s="31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B74" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="39" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="31" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="39" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="35" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="B77" s="34" t="s">
+      <c r="B80" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="39" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>399</v>
-      </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C81" s="29"/>
       <c r="D81" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>333</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="B83" s="40" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="39" t="s">
+      <c r="B85" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="31" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="39" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
-        <v>331</v>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="39" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="39" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="38" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="s">
+      <c r="C94" s="6"/>
+      <c r="D94" s="31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B95" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="39" t="s">
+      <c r="C95" s="6"/>
+      <c r="D95" s="31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="31" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="31" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="39" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="31" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="39" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="31" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="39" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="30"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="30"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="31" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="39" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="39" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="39" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="39" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="27" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>447</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="39" t="s">
+      <c r="B111" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="B112" s="26" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="39" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="39" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
+      <c r="C112" s="6"/>
+      <c r="D112" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="B110" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="B121" s="15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>334</v>
+        <v>124</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>135</v>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>137</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>324</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>154</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>156</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>158</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>161</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>164</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C141" s="26"/>
-      <c r="D141" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C142" s="26"/>
-      <c r="D142" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="B143" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C143" s="26"/>
-      <c r="D143" s="41" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>168</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>152</v>
+      <c r="D145" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>171</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>173</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>142</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>475</v>
       </c>
       <c r="C150" s="6"/>
-      <c r="D150" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>178</v>
+      <c r="D150" s="13"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>180</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>182</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>184</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>187</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>190</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>192</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>199</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>201</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>180</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>206</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>209</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B167" s="17" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>213</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>215</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>215</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>219</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>221</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>108</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>228</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B177" s="17" t="s">
-        <v>230</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>232</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>234</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>236</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>238</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B182" s="17" t="s">
-        <v>241</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B183" s="17" t="s">
-        <v>243</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B184" s="17" t="s">
-        <v>246</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B184" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="C184" s="6"/>
-      <c r="D184" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>248</v>
+      <c r="D184" s="13"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>252</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>254</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="14" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>256</v>
+      <c r="B189" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B190" s="17" t="s">
-        <v>259</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B191" s="17" t="s">
-        <v>261</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>263</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B193" s="17" t="s">
-        <v>265</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>267</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B195" s="17" t="s">
-        <v>269</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>271</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>273</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="B198" s="30" t="s">
-        <v>274</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="B199" s="30" t="s">
-        <v>275</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="B200" s="30" t="s">
-        <v>276</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B201" s="30" t="s">
-        <v>277</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="B202" s="30" t="s">
-        <v>278</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B203" s="30" t="s">
-        <v>279</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="B204" s="30" t="s">
-        <v>219</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B205" s="30" t="s">
-        <v>280</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B205" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B206" s="30" t="s">
-        <v>281</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B207" s="30" t="s">
-        <v>282</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B208" s="30" t="s">
-        <v>283</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B209" s="30" t="s">
-        <v>284</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B209" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>286</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B211" s="17" t="s">
-        <v>289</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B211" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B212" s="17" t="s">
-        <v>291</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>280</v>
       </c>
       <c r="C212" s="6"/>
-      <c r="D212" s="13"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B213" s="17" t="s">
-        <v>292</v>
+      <c r="D212" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="C213" s="6"/>
-      <c r="D213" s="13"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>148</v>
+      <c r="D213" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="C214" s="6"/>
-      <c r="D214" s="13"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B215" s="17" t="s">
-        <v>295</v>
+      <c r="D214" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="C215" s="6"/>
-      <c r="D215" s="13"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B216" s="17" t="s">
-        <v>297</v>
+      <c r="D215" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="13"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B217" s="17" t="s">
-        <v>298</v>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="13"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="B218" s="17" t="s">
-        <v>300</v>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="13"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>27</v>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C219" s="6"/>
-      <c r="D219" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
+      <c r="D219" s="13"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="C220" s="6"/>
-      <c r="D220" s="7"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
+      <c r="D220" s="13"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="7"/>
+      <c r="D221" s="13"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="13"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="35"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
